--- a/data_excel/569.xlsx
+++ b/data_excel/569.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI_DATA\1000題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>原有</t>
   </si>
@@ -136,6 +136,10 @@
   </si>
   <si>
     <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -143,7 +147,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +165,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
@@ -239,12 +251,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -550,7 +563,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" activeCellId="3" sqref="A1:C1 E1 G1 F1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -723,8 +736,8 @@
       <c r="B11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="s">
-        <v>2</v>
+      <c r="C11" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">

--- a/data_excel/569.xlsx
+++ b/data_excel/569.xlsx
@@ -117,9 +117,6 @@
     <t>剩下</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
     <t>29</t>
   </si>
   <si>
@@ -140,6 +137,10 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -147,7 +148,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +179,13 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -251,13 +259,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -563,29 +572,29 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -718,7 +727,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -729,20 +738,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
       </c>
-      <c r="B11" t="s">
-        <v>32</v>
+      <c r="B11" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
